--- a/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-14,03%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-26,14%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 1,77</t>
+          <t>-5,99; 10,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 5,31</t>
+          <t>-14,86; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,1</t>
+          <t>-4,05; 7,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 7,24</t>
+          <t>-14,1; 7,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,39; 12,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 38,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 72,17</t>
+          <t>-35,66; 135,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 53,55</t>
+          <t>-51,87; 30,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,66; 67,52</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-57,05; 60,95</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,12 +792,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,27 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,72</t>
+          <t>-3,24; 7,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,4</t>
+          <t>-5,48; 5,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 3,4</t>
+          <t>-6,55; 3,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,7</t>
+          <t>-5,09; 6,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 47,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 50,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 27,42</t>
+          <t>-25,91; 88,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 35,36</t>
+          <t>-31,16; 43,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,04; 27,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-33,62; 59,79</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>93,08%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>48,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,99%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 7,83</t>
+          <t>-4,02; 8,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,35</t>
+          <t>4,34; 13,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,36</t>
+          <t>1,33; 10,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 7,7</t>
+          <t>-5,86; 4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 103,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 131,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 103,87</t>
+          <t>-31,86; 122,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 82,24</t>
+          <t>33,48; 170,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 104,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-44,72; 57,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,06</t>
+          <t>-7,15; 2,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 5,95</t>
+          <t>-5,76; 7,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,06</t>
+          <t>-3,95; 7,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 28,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 50,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 37,11</t>
+          <t>-39,76; 19,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 30,64</t>
+          <t>-30,03; 73,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-26,51; 80,09</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 3,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 5,42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 4,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 2,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-18,15; 31,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 44,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 34,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 27,41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,9</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-14,03%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>15,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-26,14%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.1965353092770683</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.074266435581054</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.756143389768577</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.844697662420494</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.01434690011042806</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1167100712177121</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.131051386457225</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2552294273379105</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 10,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,86; 4,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,05; 7,18</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,1; 7,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-35,66; 135,33</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-51,87; 30,93</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-24,66; 67,52</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-57,05; 60,95</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.350637567075367</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.47751513063828</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.732234023575177</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-14.31823412658128</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.4531647898478106</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4984242770315557</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2750181517875333</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.5754299575950409</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.260618164143336</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.344108720814003</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.955615848995804</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.533660598643234</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.9919675299131974</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3318810519240432</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.6541531669609751</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.6054265836655657</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-6,17%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 7,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; 5,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 3,5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 6,16</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-25,91; 88,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-31,16; 43,69</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-35,04; 27,12</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-33,62; 59,79</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>2.004766210641788</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9234387578776537</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.351583513940255</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6841971129587023</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.1720428196450457</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.06716149125764337</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.08603663076766963</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.05649608829941134</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>30,38%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>93,08%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>48,83%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-4,99%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.286881826515935</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.407939820314787</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.074864172497248</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.974268090071419</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.2379558817599806</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2606949774062073</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3662611011515474</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3402265908131929</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 8,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 13,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 10,1</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 4,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-31,86; 122,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>33,48; 170,8</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8,79; 104,11</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-44,72; 57,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.818055144892848</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.609572427165417</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.241428879515718</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.956134516141152</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.8621005226489689</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5117465363845937</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.2497450221505199</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.5923026466579292</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-14,68%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,7%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>15,51%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.254700630416677</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.013676851385471</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.668882347996399</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.6441110706282532</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2233903137335053</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.8658082526708304</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4644105417366718</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.06228868611910229</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 2,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 7,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 7,2</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-39,76; 19,16</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-30,03; 73,53</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-26,51; 80,09</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.236822029681639</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.654781322157267</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.9856714776548237</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.153399718227864</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.371330583542663</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.2795943274069091</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.06097941992615457</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4591014851590201</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.443502648834781</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.36965450312042</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.789444725989133</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.291906820766423</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.155565776288404</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.631424195647414</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.003337062344931</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.5346506520895401</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17,93%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,66%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 3,34</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 5,42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 4,34</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 2,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-18,15; 31,49</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 44,83</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 34,92</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-20,05; 27,41</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.828733129310321</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.010789759712823</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.574894340272948</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.7025793752253693</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.1602026416772381</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2235560685359481</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.111508209305927</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0549725306019417</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.970741342719122</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.7458828990705363</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.644514765770634</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.418809023149904</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.1505868219795349</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.05502439263245484</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1034854548603845</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2912606959037087</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.465705048403417</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.998707893655856</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.053839618857674</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.119021805537925</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.58039544820641</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5104862461500541</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3188092491846913</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2979550954740751</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
